--- a/medicine/Enfance/Lee_JiHyeon/Lee_JiHyeon.xlsx
+++ b/medicine/Enfance/Lee_JiHyeon/Lee_JiHyeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lee JiHyeon est une autrice-illustratrice sud-coréenne de livres pour la jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lee JiHyeon est née à Séoul en 1981. Son premier album, La piscine (original : suyeongjang) a été traduit et publié dans plusieurs pays. Pour cet album, elle a remporté la médaille d’or de l’année 2015 de la Société américaine des Illustrateurs à l’exposition Original Art[1]. Cet ouvrage a également été sélectionné pour le « Meilleur livre de l’année 2015 » de la National Public Radio[2], le « Remarquable livre pour enfants de l’année 2015 » du New York Times[3] et le « Meilleur livre traduit de l’année 2016 » de IBBY-Suède[4]. Sorti en 2017, l’album La porte (original : mun) a été publié aux États-Unis, en Italie et en Chine. Ce livre d’images a été retenu pour « Les livres les plus étonnamment non conventionnels de l’année 2018[5] par la Revue des bibliothèques d’école (SLJ) et pour Silent Books 2019[6] de l’Union internationale pour les livres de jeunesse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lee JiHyeon est née à Séoul en 1981. Son premier album, La piscine (original : suyeongjang) a été traduit et publié dans plusieurs pays. Pour cet album, elle a remporté la médaille d’or de l’année 2015 de la Société américaine des Illustrateurs à l’exposition Original Art. Cet ouvrage a également été sélectionné pour le « Meilleur livre de l’année 2015 » de la National Public Radio, le « Remarquable livre pour enfants de l’année 2015 » du New York Times et le « Meilleur livre traduit de l’année 2016 » de IBBY-Suède. Sorti en 2017, l’album La porte (original : mun) a été publié aux États-Unis, en Italie et en Chine. Ce livre d’images a été retenu pour « Les livres les plus étonnamment non conventionnels de l’année 2018 par la Revue des bibliothèques d’école (SLJ) et pour Silent Books 2019 de l’Union internationale pour les livres de jeunesse.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Autrice-illustratrice
-La dernière île (original : majimak seom), Changbi (Corée du Sud), 2021,  (ISBN 978-8936455651)
+          <t>Autrice-illustratrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La dernière île (original : majimak seom), Changbi (Corée du Sud), 2021,  (ISBN 978-8936455651)
 L’ultima isola, Orecchio Acerbo (Italie), 2023,  (ISBN 979-1255070184)
 Une maison étrange (original : isanghan jip), Iyagikot Publishing, 2018,  (ISBN 978-8998751326)
 La porte (original : mun), Iyagikot Publishing (Corée du Sud), 2017,  (ISBN 978-8998751203)
@@ -560,12 +579,7 @@
 Simbassängen, Bokforlaget Mirando (Suède), 2016,  (ISBN 978-9198330304)
 Pool, Chronicle Books (États-Unis), 2015,  (ISBN 978-1452142944)
 La piscina, Orecchio Acerbo (Italie), 2015,  (ISBN 978-8899064075)
-La piscina, Barbara Fiore Editora (Espagne), 2014,  (ISBN 978-8415208501)
-Illustratrice
-Adieu, papi (original : annyeong, naui habi), texte de Oh Mi-kyung, Kids-M (Corée du Sud), 2023,  (ISBN 979-1157856299)
-Un homme en plastique (original : peullaseutik ingan), texte de Ahn Soo-min, Kookmin Books (Corée du Sud), 2021,  (ISBN 978-8911129058)
-Mur (original : byeok), texte de Park Chae-ran, Ggoomgyo Publishing (Corée du Sud), 2017,  (ISBN 979-1185928142)
-Mia au Pays imaginaire (original : nebeoraendeu mia), texte de Kim Gi-jung, Sigong Junior (Corée du Sud), 2015,  (ISBN 978-8952780942)</t>
+La piscina, Barbara Fiore Editora (Espagne), 2014,  (ISBN 978-8415208501)</t>
         </is>
       </c>
     </row>
@@ -590,19 +604,60 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Adieu, papi (original : annyeong, naui habi), texte de Oh Mi-kyung, Kids-M (Corée du Sud), 2023,  (ISBN 979-1157856299)
+Un homme en plastique (original : peullaseutik ingan), texte de Ahn Soo-min, Kookmin Books (Corée du Sud), 2021,  (ISBN 978-8911129058)
+Mur (original : byeok), texte de Park Chae-ran, Ggoomgyo Publishing (Corée du Sud), 2017,  (ISBN 979-1185928142)
+Mia au Pays imaginaire (original : nebeoraendeu mia), texte de Kim Gi-jung, Sigong Junior (Corée du Sud), 2015,  (ISBN 978-8952780942)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lee_JiHyeon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lee_JiHyeon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2019 : Prix du meilleur illustrateur étranger au Festival de BD d’Amadora au Portugal, pour La piscine (original : suyeongjang)
-2019 : Sélection pour Silent Books de l'Union internationale pour les livres de jeunesse (IBBY), pour La porte (original : mun)[6]
-2018 : Sélection pour « Les livres les plus étonnamment non conventionnels de l’année 2018 » par la revue des bibliothèques d’école (SLJ), pour La porte (original : mun)[7]
-2016 : « Meilleur livre traduit de l’année 2016 » de IBBY-Suède pour La piscine (original : suyeongjang)[8]
-2015 : « Remarquable livre pour enfants de l’année 2015 » du New York Times, pour La piscine (original : suyeongjang)[9]
-2015 : Sélection pour le « Meilleur livre de l’année 2015 » de NPR (National Public Radio), pour La piscine (original : suyeongjang)[10]
-2015 : Retenue pour la « sélection de Junior Library Guild 2015 », pour La piscine (original : suyeongjang)[11]
-2015 : Médaille d’or de l’année 2015 de la Société américaine des Illustrateurs à l’exposition Original Art, pour La piscine (original : suyeongjang)[12]</t>
+2019 : Sélection pour Silent Books de l'Union internationale pour les livres de jeunesse (IBBY), pour La porte (original : mun)
+2018 : Sélection pour « Les livres les plus étonnamment non conventionnels de l’année 2018 » par la revue des bibliothèques d’école (SLJ), pour La porte (original : mun)
+2016 : « Meilleur livre traduit de l’année 2016 » de IBBY-Suède pour La piscine (original : suyeongjang)
+2015 : « Remarquable livre pour enfants de l’année 2015 » du New York Times, pour La piscine (original : suyeongjang)
+2015 : Sélection pour le « Meilleur livre de l’année 2015 » de NPR (National Public Radio), pour La piscine (original : suyeongjang)
+2015 : Retenue pour la « sélection de Junior Library Guild 2015 », pour La piscine (original : suyeongjang)
+2015 : Médaille d’or de l’année 2015 de la Société américaine des Illustrateurs à l’exposition Original Art, pour La piscine (original : suyeongjang)</t>
         </is>
       </c>
     </row>
